--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Icam1-Itgal.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Icam1-Itgal.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>163.9108346666667</v>
+        <v>9.861094666666666</v>
       </c>
       <c r="H2">
-        <v>491.732504</v>
+        <v>29.583284</v>
       </c>
       <c r="I2">
-        <v>0.8426759240348239</v>
+        <v>0.243709096397741</v>
       </c>
       <c r="J2">
-        <v>0.8426759240348242</v>
+        <v>0.2437090963977409</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>25.15544366666667</v>
+        <v>0.04738633333333334</v>
       </c>
       <c r="N2">
-        <v>75.466331</v>
+        <v>0.142159</v>
       </c>
       <c r="O2">
-        <v>0.9701024243751556</v>
+        <v>0.05760194168856402</v>
       </c>
       <c r="P2">
-        <v>0.9701024243751556</v>
+        <v>0.05760194168856402</v>
       </c>
       <c r="Q2">
-        <v>4123.249767813647</v>
+        <v>0.4672811189062223</v>
       </c>
       <c r="R2">
-        <v>37109.24791032283</v>
+        <v>4.205530070156</v>
       </c>
       <c r="S2">
-        <v>0.8174819568687571</v>
+        <v>0.0140381171596753</v>
       </c>
       <c r="T2">
-        <v>0.8174819568687574</v>
+        <v>0.0140381171596753</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>163.9108346666667</v>
+        <v>9.861094666666666</v>
       </c>
       <c r="H3">
-        <v>491.732504</v>
+        <v>29.583284</v>
       </c>
       <c r="I3">
-        <v>0.8426759240348239</v>
+        <v>0.243709096397741</v>
       </c>
       <c r="J3">
-        <v>0.8426759240348242</v>
+        <v>0.2437090963977409</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>1.890449</v>
       </c>
       <c r="O3">
-        <v>0.02430128951224074</v>
+        <v>0.7659981644722047</v>
       </c>
       <c r="P3">
-        <v>0.02430128951224074</v>
+        <v>0.7659981644722047</v>
       </c>
       <c r="Q3">
-        <v>103.2883578282551</v>
+        <v>6.213965517168444</v>
       </c>
       <c r="R3">
-        <v>929.5952204542959</v>
+        <v>55.92568965451599</v>
       </c>
       <c r="S3">
-        <v>0.02047811159496524</v>
+        <v>0.1866807205058492</v>
       </c>
       <c r="T3">
-        <v>0.02047811159496525</v>
+        <v>0.1866807205058492</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>163.9108346666667</v>
+        <v>9.861094666666666</v>
       </c>
       <c r="H4">
-        <v>491.732504</v>
+        <v>29.583284</v>
       </c>
       <c r="I4">
-        <v>0.8426759240348239</v>
+        <v>0.243709096397741</v>
       </c>
       <c r="J4">
-        <v>0.8426759240348242</v>
+        <v>0.2437090963977409</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1451156666666666</v>
+        <v>0.1451156666666667</v>
       </c>
       <c r="N4">
-        <v>0.4353469999999999</v>
+        <v>0.435347</v>
       </c>
       <c r="O4">
-        <v>0.005596286112603656</v>
+        <v>0.1763998938392313</v>
       </c>
       <c r="P4">
-        <v>0.005596286112603657</v>
+        <v>0.1763998938392313</v>
       </c>
       <c r="Q4">
-        <v>23.78603004654311</v>
+        <v>1.430999326616444</v>
       </c>
       <c r="R4">
-        <v>214.074270418888</v>
+        <v>12.878993939548</v>
       </c>
       <c r="S4">
-        <v>0.004715855571101539</v>
+        <v>0.04299025873221649</v>
       </c>
       <c r="T4">
-        <v>0.004715855571101541</v>
+        <v>0.04299025873221649</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>88.060289</v>
       </c>
       <c r="I5">
-        <v>0.1509078305790594</v>
+        <v>0.7254466225154019</v>
       </c>
       <c r="J5">
-        <v>0.1509078305790594</v>
+        <v>0.7254466225154018</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>25.15544366666667</v>
+        <v>0.04738633333333334</v>
       </c>
       <c r="N5">
-        <v>75.466331</v>
+        <v>0.142159</v>
       </c>
       <c r="O5">
-        <v>0.9701024243751556</v>
+        <v>0.05760194168856402</v>
       </c>
       <c r="P5">
-        <v>0.9701024243751556</v>
+        <v>0.05760194168856402</v>
       </c>
       <c r="Q5">
-        <v>738.3985464032954</v>
+        <v>1.390951402661222</v>
       </c>
       <c r="R5">
-        <v>6645.586917629658</v>
+        <v>12.518562623951</v>
       </c>
       <c r="S5">
-        <v>0.1463960523019408</v>
+        <v>0.0417871340482979</v>
       </c>
       <c r="T5">
-        <v>0.1463960523019408</v>
+        <v>0.04178713404829789</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>88.060289</v>
       </c>
       <c r="I6">
-        <v>0.1509078305790594</v>
+        <v>0.7254466225154019</v>
       </c>
       <c r="J6">
-        <v>0.1509078305790594</v>
+        <v>0.7254466225154018</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>1.890449</v>
       </c>
       <c r="O6">
-        <v>0.02430128951224074</v>
+        <v>0.7659981644722047</v>
       </c>
       <c r="P6">
-        <v>0.02430128951224074</v>
+        <v>0.7659981644722047</v>
       </c>
       <c r="Q6">
         <v>18.49705391997344</v>
@@ -818,10 +818,10 @@
         <v>166.473485279761</v>
       </c>
       <c r="S6">
-        <v>0.003667254880565899</v>
+        <v>0.5556907812693582</v>
       </c>
       <c r="T6">
-        <v>0.003667254880565899</v>
+        <v>0.5556907812693581</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>88.060289</v>
       </c>
       <c r="I7">
-        <v>0.1509078305790594</v>
+        <v>0.7254466225154019</v>
       </c>
       <c r="J7">
-        <v>0.1509078305790594</v>
+        <v>0.7254466225154018</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.1451156666666666</v>
+        <v>0.1451156666666667</v>
       </c>
       <c r="N7">
-        <v>0.4353469999999999</v>
+        <v>0.435347</v>
       </c>
       <c r="O7">
-        <v>0.005596286112603656</v>
+        <v>0.1763998938392313</v>
       </c>
       <c r="P7">
-        <v>0.005596286112603657</v>
+        <v>0.1763998938392313</v>
       </c>
       <c r="Q7">
-        <v>4.259642515031444</v>
+        <v>4.259642515031445</v>
       </c>
       <c r="R7">
-        <v>38.33678263528299</v>
+        <v>38.336782635283</v>
       </c>
       <c r="S7">
-        <v>0.0008445233965527355</v>
+        <v>0.1279687071977458</v>
       </c>
       <c r="T7">
-        <v>0.0008445233965527357</v>
+        <v>0.1279687071977458</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,40 +912,40 @@
         <v>3.744116</v>
       </c>
       <c r="I8">
-        <v>0.006416245386116614</v>
+        <v>0.03084428108685718</v>
       </c>
       <c r="J8">
-        <v>0.006416245386116614</v>
+        <v>0.03084428108685716</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>25.15544366666667</v>
+        <v>0.04738633333333334</v>
       </c>
       <c r="N8">
-        <v>75.466331</v>
+        <v>0.142159</v>
       </c>
       <c r="O8">
-        <v>0.9701024243751556</v>
+        <v>0.05760194168856402</v>
       </c>
       <c r="P8">
-        <v>0.9701024243751556</v>
+        <v>0.05760194168856402</v>
       </c>
       <c r="Q8">
-        <v>31.39496637315511</v>
+        <v>0.05913997627155556</v>
       </c>
       <c r="R8">
-        <v>282.554697358396</v>
+        <v>0.5322597864440001</v>
       </c>
       <c r="S8">
-        <v>0.006224415204457633</v>
+        <v>0.001776690480590825</v>
       </c>
       <c r="T8">
-        <v>0.006224415204457634</v>
+        <v>0.001776690480590825</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>3.744116</v>
       </c>
       <c r="I9">
-        <v>0.006416245386116614</v>
+        <v>0.03084428108685718</v>
       </c>
       <c r="J9">
-        <v>0.006416245386116614</v>
+        <v>0.03084428108685716</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>1.890449</v>
       </c>
       <c r="O9">
-        <v>0.02430128951224074</v>
+        <v>0.7659981644722047</v>
       </c>
       <c r="P9">
-        <v>0.02430128951224074</v>
+        <v>0.7659981644722047</v>
       </c>
       <c r="Q9">
         <v>0.7864511497871111</v>
@@ -1004,10 +1004,10 @@
         <v>7.078060348084</v>
       </c>
       <c r="S9">
-        <v>0.0001559230367095987</v>
+        <v>0.02362666269699733</v>
       </c>
       <c r="T9">
-        <v>0.0001559230367095987</v>
+        <v>0.02362666269699733</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>3.744116</v>
       </c>
       <c r="I10">
-        <v>0.006416245386116614</v>
+        <v>0.03084428108685718</v>
       </c>
       <c r="J10">
-        <v>0.006416245386116614</v>
+        <v>0.03084428108685716</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,16 +1048,16 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1451156666666666</v>
+        <v>0.1451156666666667</v>
       </c>
       <c r="N10">
-        <v>0.4353469999999999</v>
+        <v>0.435347</v>
       </c>
       <c r="O10">
-        <v>0.005596286112603656</v>
+        <v>0.1763998938392313</v>
       </c>
       <c r="P10">
-        <v>0.005596286112603657</v>
+        <v>0.1763998938392313</v>
       </c>
       <c r="Q10">
         <v>0.1811099631391111</v>
@@ -1066,10 +1066,10 @@
         <v>1.629989668252</v>
       </c>
       <c r="S10">
-        <v>3.590714494938169E-05</v>
+        <v>0.005440927909269016</v>
       </c>
       <c r="T10">
-        <v>3.59071449493817E-05</v>
+        <v>0.005440927909269013</v>
       </c>
     </row>
   </sheetData>
